--- a/status reports/Final Device Subsystems.xlsx
+++ b/status reports/Final Device Subsystems.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>SUBSYSTEM</t>
   </si>
@@ -187,7 +187,94 @@
     <t>Fix position of tool when not in use</t>
   </si>
   <si>
-    <t xml:space="preserve">Rough design - requires feasilibility analysis </t>
+    <t>Bone mount, primary link system, support link system</t>
+  </si>
+  <si>
+    <t>Rotating base, primary link system, link 3</t>
+  </si>
+  <si>
+    <t>Rotating base, physical constraint, support link system, link 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rotating base, primary link system, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>motor 1</t>
+    </r>
+  </si>
+  <si>
+    <t>primary link system,</t>
+  </si>
+  <si>
+    <t>primary link system, support link system, offset links</t>
+  </si>
+  <si>
+    <t>link 3, tool mount system</t>
+  </si>
+  <si>
+    <t>Offset links, tool</t>
+  </si>
+  <si>
+    <t>tool mount system, bone</t>
+  </si>
+  <si>
+    <t>Encoder 1: Hard constraint motor, Encoder 2: Support system joint 2, Encoder 3: joint between link 4 and link 5, Encoder 5: gravity compensation motor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Encoder 1 cables: none, Encoder 2 cables: support link system, Encoder 3 cables: primary link system, Encoder 4: none - all cables go to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'cable box'</t>
+    </r>
+  </si>
+  <si>
+    <t>control system box</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cable management system, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>actuating pedal</t>
+    </r>
+  </si>
+  <si>
+    <t>Femur, rotating base, gravity compensation motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rough design - requires feasibility analysis </t>
+  </si>
+  <si>
+    <t>supported by ball bearing attached to 'Axel 1'</t>
+  </si>
+  <si>
+    <t>Bone mount pins to femur, 'Axel 1' supports rotating base and gravity compensation motor, rotating base support by sealed ball bearing press fit onto 'Axel 1', motor press fit onto axel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary link system connects to rotating base through sealed ball bearing, link 1 and link 2 connect by 2 sealed ball bearings </t>
   </si>
 </sst>
 </file>
@@ -556,16 +643,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -586,15 +673,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75">
+    <row r="2" spans="1:8" ht="120">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
@@ -609,8 +700,12 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
@@ -625,8 +720,12 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
@@ -641,7 +740,9 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>40</v>
@@ -657,7 +758,9 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>30</v>
@@ -673,7 +776,9 @@
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>31</v>
@@ -689,7 +794,9 @@
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>33</v>
@@ -705,7 +812,9 @@
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>34</v>
@@ -721,7 +830,9 @@
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>35</v>
@@ -737,7 +848,9 @@
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>36</v>
@@ -746,14 +859,16 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="90">
+    <row r="12" spans="1:8" ht="120">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>42</v>
@@ -762,14 +877,16 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="75">
+    <row r="13" spans="1:8" ht="120">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>38</v>
@@ -785,7 +902,9 @@
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>39</v>
@@ -798,13 +917,15 @@
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
+      <c r="E15" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>

--- a/status reports/Final Device Subsystems.xlsx
+++ b/status reports/Final Device Subsystems.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>SUBSYSTEM</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">Combination of links 1 and 2 that provide primary structure and receive hard constraint </t>
-  </si>
-  <si>
-    <t>Restrains link 3 to allow for linear motion</t>
   </si>
   <si>
     <t>Allows for rotation about bone mount and houses link 1, physical constraint and motors</t>
@@ -274,7 +271,113 @@
     <t>Bone mount pins to femur, 'Axel 1' supports rotating base and gravity compensation motor, rotating base support by sealed ball bearing press fit onto 'Axel 1', motor press fit onto axel</t>
   </si>
   <si>
-    <t xml:space="preserve">primary link system connects to rotating base through sealed ball bearing, link 1 and link 2 connect by 2 sealed ball bearings </t>
+    <t>Restrains link 3 to allow for linear motion, aligned at 90 degree angle to primary link system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLS connects to rotating base through sealed ball bearing, link 1 and link 2 connect by 2 sealed ball bearings, PLS LINK 3  connected bysealed ball bearing </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SLS connects to rotating base through sealed ball bearing, support link 1 and link 2 connect by 2 sealed ball bearings, SLS LINK 3  connected bysealed ball bearing - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>must keep bearing tolerances high to minimize alignment error</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Physical constraint pin is in direct contact with PLS and is attached to motor with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>offset and spline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GCS(1): Motor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>press fit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> onto Axel 1 GCS(2): Mounted onto Axel 2 and Axel 3 at rotational base and link 3.  Cam attached to joint between link 1 and link 2 will vary spring force and constrain spring.</t>
+    </r>
+  </si>
+  <si>
+    <t>Link 3 connected with Axel 3 and sealed ball bearings to PLS and SLS.  Link 3 and Offset link joint (Link 4) welded</t>
+  </si>
+  <si>
+    <t>Link 4 and link 5 connected by Axel 4 and sealed ball bearing, link 5 and tool mount connected with sealed thrust bearing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">link 5 and tool mount connected with sealed thrust bearing, tool pinned into tool mount - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mounts must be tool specific</t>
+    </r>
+  </si>
+  <si>
+    <t>specific tools must be used</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">each mounted to corresponding joint axel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(shaft?)</t>
+    </r>
+  </si>
+  <si>
+    <t>combination of grooves and zap straps</t>
+  </si>
+  <si>
+    <t>cable box</t>
+  </si>
+  <si>
+    <t>not sure</t>
   </si>
 </sst>
 </file>
@@ -643,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,13 +767,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="120">
@@ -678,16 +781,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -698,22 +801,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="90">
+    <row r="4" spans="1:8" ht="105">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -721,31 +824,33 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="90">
+    <row r="5" spans="1:8" ht="135">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -753,17 +858,19 @@
     </row>
     <row r="6" spans="1:8" ht="120">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -771,17 +878,19 @@
     </row>
     <row r="7" spans="1:8" ht="165">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -789,35 +898,39 @@
     </row>
     <row r="8" spans="1:8" ht="120">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="60">
+    <row r="9" spans="1:8" ht="75">
       <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -825,17 +938,19 @@
     </row>
     <row r="10" spans="1:8" ht="90">
       <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -843,17 +958,19 @@
     </row>
     <row r="11" spans="1:8" ht="45">
       <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -861,17 +978,19 @@
     </row>
     <row r="12" spans="1:8" ht="120">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -879,17 +998,19 @@
     </row>
     <row r="13" spans="1:8" ht="120">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -897,17 +1018,19 @@
     </row>
     <row r="14" spans="1:8" ht="60">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -915,17 +1038,19 @@
     </row>
     <row r="15" spans="1:8" ht="45">
       <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="1"/>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="E15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>

--- a/status reports/Final Device Subsystems.xlsx
+++ b/status reports/Final Device Subsystems.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="OVERALL" sheetId="1" r:id="rId1"/>
+    <sheet name="Bearing Selection" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>SUBSYSTEM</t>
   </si>
@@ -378,6 +378,75 @@
   </si>
   <si>
     <t>not sure</t>
+  </si>
+  <si>
+    <t>General Link Design</t>
+  </si>
+  <si>
+    <t>33mm bearings placed</t>
+  </si>
+  <si>
+    <t>Type of Bearing</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Needle and thrust</t>
+  </si>
+  <si>
+    <t>Plain bearing</t>
+  </si>
+  <si>
+    <t>Double angular contact</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>NXTN</t>
+  </si>
+  <si>
+    <t>Double angular contact provides both radial and thrust constraints and will allow for preloading</t>
+  </si>
+  <si>
+    <t>Needle provides radial loading and thrust for preload loading</t>
+  </si>
+  <si>
+    <t>Combination link and cap design (bearings placed in cap) which is press fit into link.  Encoder can be position both on link side or on cap side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressed into link at needle section, axel comes up flush onto bearing casing and will fit snuggly into inner race </t>
+  </si>
+  <si>
+    <t>Concerns</t>
+  </si>
+  <si>
+    <t>Size (really big)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18mm (wide) by 14mm (radial) link: </t>
+  </si>
+  <si>
+    <t>NKX10TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23mm (w) by 24mm (rad) with 19mm bore, shaft size: 10mm </t>
+  </si>
+  <si>
+    <t>will need wider links to achieve</t>
+  </si>
+  <si>
+    <t>Tapered roller bearings</t>
+  </si>
+  <si>
+    <t>way too big</t>
   </si>
 </sst>
 </file>
@@ -746,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1066,9 +1135,13 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+    <row r="17" spans="1:8" ht="30">
+      <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1085,12 +1158,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
